--- a/Docs/Casos de prueba.xlsx
+++ b/Docs/Casos de prueba.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\BirdLand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MyTravelHome\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla pivote" sheetId="6" r:id="rId1"/>
-    <sheet name="Birdland - Casos" sheetId="1" r:id="rId2"/>
+    <sheet name="MyTravelHome - Casos" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Certificado">'Birdland - Casos'!$G$4:$G$6</definedName>
-    <definedName name="Estado">'Birdland - Casos'!$G$4:$G$6</definedName>
+    <definedName name="Certificado">'MyTravelHome - Casos'!$G$4:$G$6</definedName>
+    <definedName name="Estado">'MyTravelHome - Casos'!$G$4:$G$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,117 +73,12 @@
     <t>Se permite el registro de nuevos usuarios</t>
   </si>
   <si>
-    <t>Registro de usuarios</t>
-  </si>
-  <si>
     <t>Requerimientos en el nombre de usuario y contraseña</t>
   </si>
   <si>
     <t>La contraseña se guarda de manera encriptada</t>
   </si>
   <si>
-    <t xml:space="preserve">Los usuarios pueden calificar los avistamientos </t>
-  </si>
-  <si>
-    <t>Para calificar los avistamientos es necesario haber iniciado sesión</t>
-  </si>
-  <si>
-    <t>Para registrar avistamientos es necesario haber iniciado sesión</t>
-  </si>
-  <si>
-    <t>Para iniciar sesión es necesario tener un usuario y contraseña válidos</t>
-  </si>
-  <si>
-    <t>Para registrar un avistamiento no es necesario subir una foto</t>
-  </si>
-  <si>
-    <t>La zona de avistamiento se registra por un mapa</t>
-  </si>
-  <si>
-    <t>Al realizar un avistamiento el sistema indica si el ave está o no en peligro de extinción</t>
-  </si>
-  <si>
-    <t>Para registrar un avistamiento es necesario elegir un ave del catálogo de aves</t>
-  </si>
-  <si>
-    <t>Al elegir el ave para el avistamiento la información de esta (como clase, orden , color) se muestran al usuario</t>
-  </si>
-  <si>
-    <t>Se pueden realizar consultas por especie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se pueden realizar consultas por orden </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se pueden realizar consultas por suborden </t>
-  </si>
-  <si>
-    <t>Se pueden realizar consultas por familia</t>
-  </si>
-  <si>
-    <t>Se pueden realizar consultas por género</t>
-  </si>
-  <si>
-    <t>Se pueden realizar consultas por color</t>
-  </si>
-  <si>
-    <t>Se pueden realizar consultas por tamaño</t>
-  </si>
-  <si>
-    <t>Se pueden realizar consultas por ubicación</t>
-  </si>
-  <si>
-    <t>Al consultar las aves registradas por persona se muestran todos lo datos del avistamiento</t>
-  </si>
-  <si>
-    <t>Se pueden realizar consultas por  aves registradas por persona</t>
-  </si>
-  <si>
-    <t>Se muestran estadísticas de  la cantidad de aves registradas por suborden</t>
-  </si>
-  <si>
-    <t>Se muestran estadísticas de  la cantidad de aves registradas por familia</t>
-  </si>
-  <si>
-    <t>Se muestran estadísticas de  la cantidad de aves registradas por género</t>
-  </si>
-  <si>
-    <t>Se muestran estadísticas de  la cantidad de aves registradas por especie</t>
-  </si>
-  <si>
-    <t>Se muestran estadísticas de  la cantidad de aves registradas por zona de vida</t>
-  </si>
-  <si>
-    <t>Se muestra un top 5 de las personas con mayor cantidad de registros de aves</t>
-  </si>
-  <si>
-    <t>Se muestra un top 5 de los avistamientos con mayor puntuación</t>
-  </si>
-  <si>
-    <t>Se muestra un mapa de google maps con los avistamientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al modificar los filtros el mapa refresca con los nuevos puntos </t>
-  </si>
-  <si>
-    <t>En la visualización del mapa es posible utilizar filtros</t>
-  </si>
-  <si>
-    <t>Se realiza un reporte de los avistamientos en los que las aves estén en peligro de extinción</t>
-  </si>
-  <si>
-    <t>El sistema envía un correo electrónico a los usuarios en su día de cumpleaños</t>
-  </si>
-  <si>
-    <t>Se tiene una bitácora con los cambios de clave realizados por los usuarios</t>
-  </si>
-  <si>
-    <t>Los mensajes de los correos son parametrizables</t>
-  </si>
-  <si>
-    <t>La paginación es parametrizable</t>
-  </si>
-  <si>
     <t>El sistema incluye la información de las localizaciones del país</t>
   </si>
   <si>
@@ -214,144 +109,6 @@
     <t>La contraseña no puede ser inferida</t>
   </si>
   <si>
-    <t>Por medio de un botón los usuarios pueden dar un "love" al avistamiento</t>
-  </si>
-  <si>
-    <t>El usuario se puede registrar en diferentes categorías</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Los usuarios se clasifican como ornitólogos o aficionados</t>
-  </si>
-  <si>
-    <t>Si se entra como "visitante" (no ha iniciado sesión), no puede calificar avistamientos</t>
-  </si>
-  <si>
-    <t>Si se entra como "visitante" (no ha iniciado sesión), no se pueden crea avistamientos</t>
-  </si>
-  <si>
-    <t>Se confirmaran los datos ingresados con los guardados en la base de datos</t>
-  </si>
-  <si>
-    <t>Se pueden crear avistamientos sin fotos</t>
-  </si>
-  <si>
-    <t>Se muestra un mapa que permite marcar la localización del avistamiento</t>
-  </si>
-  <si>
-    <t>Se muestra entre las características del ave, si está o no en peligro de extinción</t>
-  </si>
-  <si>
-    <t>No es posible realizar un avistamiento sin haber elegido el avistada</t>
-  </si>
-  <si>
-    <t>Se muestra entre las características del ave</t>
-  </si>
-  <si>
-    <t>Se muestra todas la aves que pertenecen a ese orden</t>
-  </si>
-  <si>
-    <t>Se muestra todas la aves que pertenecen a ese suborden</t>
-  </si>
-  <si>
-    <t>Se muestra todas la aves que pertenecen a ese especie</t>
-  </si>
-  <si>
-    <t>Se muestra todas la aves que pertenecen a esa familia</t>
-  </si>
-  <si>
-    <t>Se muestra todas la aves que pertenecen a ese género</t>
-  </si>
-  <si>
-    <t>Se muestran las aves que tienen ese color</t>
-  </si>
-  <si>
-    <t>Se muestran estadísticas de  la cantidad de aves registradas por orden</t>
-  </si>
-  <si>
-    <t>Se muestra todas la aves que viven en esa ubicación</t>
-  </si>
-  <si>
-    <t>Se muestra todas la aves registradas por cada persona</t>
-  </si>
-  <si>
-    <t>Se muestra todas la aves que tienen cierto tamaño</t>
-  </si>
-  <si>
-    <t>Hay un acceso a una ficha técnica que muestra los datos</t>
-  </si>
-  <si>
-    <t>Se da el número exacto de aves registradas por orden</t>
-  </si>
-  <si>
-    <t>Se da el número exacto de aves registradas por suborden</t>
-  </si>
-  <si>
-    <t>Se da el número exacto de aves registradas por familia</t>
-  </si>
-  <si>
-    <t>Se da el número exacto de aves registradas por género</t>
-  </si>
-  <si>
-    <t>Se da el número exacto de aves registradas por especie</t>
-  </si>
-  <si>
-    <t>Se da el número exacto de aves registradas por zona de vida</t>
-  </si>
-  <si>
-    <t>Top 5 de las personas con mayor cantidad de avistamientos</t>
-  </si>
-  <si>
-    <t>Top 5 de los avistamientos con mayor puntuación</t>
-  </si>
-  <si>
-    <t>Las localizaciones mostradas en el mapa están acorde con las ingresadas al realizar el avistamiento</t>
-  </si>
-  <si>
-    <t>En el mapa se utilizan marcadores en la ubicaión donde se realizó cada avistamiento</t>
-  </si>
-  <si>
-    <t>Los marcadores son certeros</t>
-  </si>
-  <si>
-    <t>Se utilizan filtros para mostrar solo la información que el usuario pide</t>
-  </si>
-  <si>
-    <t>Filtros funcionales</t>
-  </si>
-  <si>
-    <t>El sistema identifica los avistamientos de aves en peligro de extinción</t>
-  </si>
-  <si>
-    <t>Las aves se catalogan si están en peligro de extinción o no.</t>
-  </si>
-  <si>
-    <t>Se muestra un reporte, para los administradores, de todos los avistamentos  de aves en peligro de extinción</t>
-  </si>
-  <si>
-    <t>Correo electrónico a los cumpleañeros</t>
-  </si>
-  <si>
-    <t>El proceso de de correos electrónicos se realiza por medio de un job, a media noche todos los días</t>
-  </si>
-  <si>
-    <t>El envío de correos se realiza en un tiempo establecido</t>
-  </si>
-  <si>
-    <t>Cada vez que un usuario cambia su clave, estos cambios se registran en una bitácora</t>
-  </si>
-  <si>
-    <t>El mensaje del correo de cumpleaños puede ser cambiado por el administrador</t>
-  </si>
-  <si>
-    <t>La cantidad de registros que se muestran por página puede ser cambiado por el administrador</t>
-  </si>
-  <si>
-    <t>El sistema viene cargado, como mínimo, con las aves pertenecientes a las familias Furnariidae e Incertae sedis</t>
-  </si>
-  <si>
-    <t>El sistema incluye la información de las familias Furnariidae e Incertae sedis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se encuetra disponible la información de todos los distritos, cantones y provincias del país </t>
   </si>
   <si>
@@ -365,13 +122,256 @@
   </si>
   <si>
     <t>Los procedimientos y funciones son almacenados.</t>
+  </si>
+  <si>
+    <t>El usuario se puede registrar como una agencia</t>
+  </si>
+  <si>
+    <t>El usuario se puede registrar como un hotel</t>
+  </si>
+  <si>
+    <t>Se crea una nueva agencia junto con el nuevo usuario</t>
+  </si>
+  <si>
+    <t>Se crea una nuevo hotel junto con el nuevo usuario</t>
+  </si>
+  <si>
+    <t>El usuario se puede registrar como un administrador de plataforma</t>
+  </si>
+  <si>
+    <t>Se crea una nuevo administrador junto con el nuevo usuario</t>
+  </si>
+  <si>
+    <t>El usuario se puede registrar como un cliente</t>
+  </si>
+  <si>
+    <t>Se crea una nuevo cliente junto con el nuevo usuario</t>
+  </si>
+  <si>
+    <t>Se tiene una bitácora con todos los cambios</t>
+  </si>
+  <si>
+    <t>Cada vez que se realiza una acción en el sistema, se registra en una bitácora junto con el usuario que lo realizó</t>
+  </si>
+  <si>
+    <t>El administrador de plataforma tiene acceso a la bitácora</t>
+  </si>
+  <si>
+    <t>El administrador puede ver los registros de la bitácora</t>
+  </si>
+  <si>
+    <t>Solo al ingresar como administrador de plataforma se muestran las opciones propias de este</t>
+  </si>
+  <si>
+    <t>Consulta de usuarios por aportes</t>
+  </si>
+  <si>
+    <t>El administrador puede consultar los datos de los usuarios y sus aportes (likes, comentarios, hospedajes)</t>
+  </si>
+  <si>
+    <t>Consulta de hoteles por servicios</t>
+  </si>
+  <si>
+    <t>El administrador puede consultar los hoteles según los servicios que estos provean</t>
+  </si>
+  <si>
+    <t>Ingresar como agencia</t>
+  </si>
+  <si>
+    <t>Solo al ingresar como agencia se muestran las opciones propias de esta</t>
+  </si>
+  <si>
+    <t>Creación de ofertas</t>
+  </si>
+  <si>
+    <t>Visualización, borrado y edición de ofertas</t>
+  </si>
+  <si>
+    <t>Se crean nuevas ofertas eligiendo la habitación correspondiente</t>
+  </si>
+  <si>
+    <t>El agente puede cambiar sus ofertas</t>
+  </si>
+  <si>
+    <t>Ingresar como administrador de plataforma</t>
+  </si>
+  <si>
+    <t>Ingresar como administrador de hotel</t>
+  </si>
+  <si>
+    <t>Solo al ingresar como administrador de un hotel se muestran las opciones propias de este</t>
+  </si>
+  <si>
+    <t>Registro de personal</t>
+  </si>
+  <si>
+    <t>Se puede tener más de un administrador por hotel</t>
+  </si>
+  <si>
+    <t>Registro y modificación de hoteles</t>
+  </si>
+  <si>
+    <t>El administrador del hotel puede modificar sus característica</t>
+  </si>
+  <si>
+    <t>Se maneja la locación del hotel</t>
+  </si>
+  <si>
+    <t>Se muestra en un mapa la locación del hotel elegida por el usuario</t>
+  </si>
+  <si>
+    <t>Creación de habitaciones</t>
+  </si>
+  <si>
+    <t>Estado del hotel</t>
+  </si>
+  <si>
+    <t>Reporte de hoteles</t>
+  </si>
+  <si>
+    <t>Reporte de días mayores</t>
+  </si>
+  <si>
+    <t>Reporte de clasificación de clientes</t>
+  </si>
+  <si>
+    <t>Clasificación de hoteles</t>
+  </si>
+  <si>
+    <t>Ingresar como cliente</t>
+  </si>
+  <si>
+    <t>Hacer reservaciones</t>
+  </si>
+  <si>
+    <t>Descuentos en habitaciones</t>
+  </si>
+  <si>
+    <t>Calificar hotel</t>
+  </si>
+  <si>
+    <t>Puntuación calificación</t>
+  </si>
+  <si>
+    <t>Comentarios en calificación</t>
+  </si>
+  <si>
+    <t>Likes de calificaciones</t>
+  </si>
+  <si>
+    <t>Se pueden agregar, editar y eliminar categorías de hoteles</t>
+  </si>
+  <si>
+    <t>Se pueden agregar, editar y eliminar tipos de hotel</t>
+  </si>
+  <si>
+    <t>Se pueden eliminar calificaciones</t>
+  </si>
+  <si>
+    <t>Se pueden agregar, editar y eliminar rangos de precio</t>
+  </si>
+  <si>
+    <t>Se pueden agregar, editar y eliminar servicios principales</t>
+  </si>
+  <si>
+    <t>Se pueden agregar, editar y eliminar tipos de habitaciones</t>
+  </si>
+  <si>
+    <t>Conexión bases de datos</t>
+  </si>
+  <si>
+    <t>Registro de usuarios clientes</t>
+  </si>
+  <si>
+    <t>Interfaz</t>
+  </si>
+  <si>
+    <t>La interfaz se realiza para web, además es agradable a la vista y de un uso intuitivo</t>
+  </si>
+  <si>
+    <t>La conexión con la bases de datos es correcta, y estable</t>
+  </si>
+  <si>
+    <t>Se registran administradores</t>
+  </si>
+  <si>
+    <t>Se permite el registro de nuevos usuarios administradores de plataforma, hoteles o agencias</t>
+  </si>
+  <si>
+    <t>Manejo de categorías de hoteles</t>
+  </si>
+  <si>
+    <t>Manejo de  tipos de hotel</t>
+  </si>
+  <si>
+    <t>Manejo de calificaciones</t>
+  </si>
+  <si>
+    <t>Manejo de rangos de precio</t>
+  </si>
+  <si>
+    <t>Manejo de principales</t>
+  </si>
+  <si>
+    <t>Manejo de tipos de habitaciones</t>
+  </si>
+  <si>
+    <t>Los administradores de los hoteles pueden crear nuevas habitaciones para el hotel</t>
+  </si>
+  <si>
+    <t>Se pueden agregar, editar y eliminar  habitaciones</t>
+  </si>
+  <si>
+    <t>Manejo de habitaciones</t>
+  </si>
+  <si>
+    <t>Manejo de servicios del hotel</t>
+  </si>
+  <si>
+    <t>Se pueden agregar y eliminar servicios que ofrezca el hotel</t>
+  </si>
+  <si>
+    <t>El estado del hotel debe cambiar a activado o desactivado, ya sea manualmente, por un administrador o por el sistema, en caso de que no hayan más habitaciones disponibles</t>
+  </si>
+  <si>
+    <t>Se muestran los datos de ventas, en un rango de tiempo, de los hoteles</t>
+  </si>
+  <si>
+    <t>Se muestran los n días con mayores ventas</t>
+  </si>
+  <si>
+    <t>Se muestran los clientes del hotel después de utilizar filtros para obtener la información oportuna.</t>
+  </si>
+  <si>
+    <t>Se muestran la cantidad de likes por hotel, después de filtrar los datos</t>
+  </si>
+  <si>
+    <t>Se muestran las opciones generales, y además tiene posibilidad de hacer resservaciones y calificar hoteles</t>
+  </si>
+  <si>
+    <t>Un cliente puede reservar una habitación</t>
+  </si>
+  <si>
+    <t>Si una agencia ha ofrecido un descuento por una habitación, este porcentaje se mostrará a la hora de elegirla, además indica la agencia que lo hace</t>
+  </si>
+  <si>
+    <t>Los clientes tienen la posibilidad de expresar su opinión acerca de un hotel</t>
+  </si>
+  <si>
+    <t>La calificación tendrá una parte númerica que indica en un rango que tan bueno es el hotel</t>
+  </si>
+  <si>
+    <t>Además se puede reforzar con un comentario acerca de su experiencia</t>
+  </si>
+  <si>
+    <t>Los usuarios pueden dar likes a las calificaciones realizados por otros usuarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,8 +409,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,12 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,60 +451,58 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -536,6 +536,9 @@
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -886,7 +889,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -930,13 +933,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B4:E54" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B4:E54" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
   <autoFilter ref="B4:E54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id " dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Resultado esperado" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Estado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id " dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Resultado esperado" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Estado" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1241,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,47 +1287,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E54"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="108.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="91" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="108.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="91" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="7"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1332,33 +1335,33 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1366,28 +1369,28 @@
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1395,27 +1398,27 @@
       <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1423,13 +1426,13 @@
       <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1437,13 +1440,13 @@
       <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1451,27 +1454,27 @@
       <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1479,13 +1482,13 @@
       <c r="B15" s="8">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1493,551 +1496,551 @@
       <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>19</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>20</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>21</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
         <v>22</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="C26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>25</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>26</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <v>27</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
+        <v>28</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
+        <v>29</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>31</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <v>32</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
+        <v>33</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
+        <v>34</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8">
+        <v>35</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
+        <v>36</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8">
+        <v>37</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <v>38</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="8">
+        <v>39</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
-        <v>14</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="D43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
+        <v>40</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+      <c r="D44" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
+        <v>41</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
+        <v>42</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="8">
+        <v>43</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
+        <v>44</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="8">
+        <v>45</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8">
+        <v>46</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
+      <c r="D50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="8">
+        <v>47</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="E51" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="8">
+        <v>48</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D52" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
+      <c r="E52" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="8">
+        <v>49</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D53" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="8">
+        <v>50</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
-        <v>19</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="11">
-        <v>20</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="11">
-        <v>21</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="11">
-        <v>22</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
-        <v>23</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
-        <v>24</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
-        <v>25</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
-        <v>26</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="11">
-        <v>27</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
-        <v>28</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
-        <v>29</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="11">
-        <v>30</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
-        <v>31</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="11">
-        <v>32</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
-        <v>33</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
-        <v>34</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
-        <v>35</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
-        <v>36</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
-        <v>37</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
-        <v>38</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
-        <v>39</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
-        <v>40</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
-        <v>41</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
-        <v>42</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
-        <v>43</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
-        <v>44</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
-        <v>45</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
-        <v>46</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
-        <v>47</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
-        <v>48</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
-        <v>49</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
-        <v>50</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
